--- a/picks_fixtures_prediction_cloned_events.xlsx
+++ b/picks_fixtures_prediction_cloned_events.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A85DF26-29D4-4F61-839F-898A73535045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA4C23C-B6DD-484E-BB81-5F6FCEAC621B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4279" uniqueCount="1481">
   <si>
     <t>Date</t>
   </si>
@@ -4457,6 +4465,12 @@
   </si>
   <si>
     <t>9.1176</t>
+  </si>
+  <si>
+    <t>CrossBookings</t>
+  </si>
+  <si>
+    <t>CBs</t>
   </si>
 </sst>
 </file>
@@ -4852,13 +4866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT144"/>
+  <dimension ref="A1:BV144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AS14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD25"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4925,7 +4939,7 @@
     <col min="72" max="72" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5139,8 +5153,14 @@
       <c r="BT1" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="BU1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>1480</v>
+      </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -5357,8 +5377,16 @@
       <c r="BT2" s="2">
         <v>4.46</v>
       </c>
+      <c r="BU2">
+        <f>(AZ2*10)*(BA2*10)</f>
+        <v>349.95822600000002</v>
+      </c>
+      <c r="BV2">
+        <f>(BD2*10)*(BE2*10)</f>
+        <v>261.63000000000005</v>
+      </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -5575,8 +5603,16 @@
       <c r="BT3" s="2">
         <v>5.29</v>
       </c>
+      <c r="BU3">
+        <f t="shared" ref="BU3:BU66" si="0">(AZ3*10)*(BA3*10)</f>
+        <v>560.76300000000015</v>
+      </c>
+      <c r="BV3">
+        <f t="shared" ref="BV3:BV66" si="1">(BD3*10)*(BE3*10)</f>
+        <v>547.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -5793,8 +5829,16 @@
       <c r="BT4" s="2">
         <v>2.4500000000000002</v>
       </c>
+      <c r="BU4">
+        <f t="shared" si="0"/>
+        <v>458.66303999999997</v>
+      </c>
+      <c r="BV4">
+        <f t="shared" si="1"/>
+        <v>566.15</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -6011,8 +6055,16 @@
       <c r="BT5" s="2">
         <v>4.5600000000000005</v>
       </c>
+      <c r="BU5">
+        <f t="shared" si="0"/>
+        <v>378.58322700000008</v>
+      </c>
+      <c r="BV5">
+        <f t="shared" si="1"/>
+        <v>283.05</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -6229,8 +6281,16 @@
       <c r="BT6" s="2">
         <v>4.46</v>
       </c>
+      <c r="BU6">
+        <f t="shared" si="0"/>
+        <v>295.83359999999993</v>
+      </c>
+      <c r="BV6">
+        <f t="shared" si="1"/>
+        <v>419.04</v>
+      </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -6447,8 +6507,16 @@
       <c r="BT7" s="2">
         <v>4.17</v>
       </c>
+      <c r="BU7">
+        <f t="shared" si="0"/>
+        <v>472.11660000000001</v>
+      </c>
+      <c r="BV7">
+        <f t="shared" si="1"/>
+        <v>315.18000000000006</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -6665,8 +6733,16 @@
       <c r="BT8" s="2">
         <v>3.79</v>
       </c>
+      <c r="BU8">
+        <f t="shared" si="0"/>
+        <v>826.97979000000021</v>
+      </c>
+      <c r="BV8">
+        <f t="shared" si="1"/>
+        <v>510.90000000000003</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -6883,8 +6959,16 @@
       <c r="BT9" s="2">
         <v>3.49</v>
       </c>
+      <c r="BU9">
+        <f t="shared" si="0"/>
+        <v>473.60528600000004</v>
+      </c>
+      <c r="BV9">
+        <f t="shared" si="1"/>
+        <v>359.30999999999995</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -7101,8 +7185,16 @@
       <c r="BT10" s="2">
         <v>4.04</v>
       </c>
+      <c r="BU10">
+        <f t="shared" si="0"/>
+        <v>372.32179599999995</v>
+      </c>
+      <c r="BV10">
+        <f t="shared" si="1"/>
+        <v>401.78999999999996</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -7319,8 +7411,16 @@
       <c r="BT11" s="2">
         <v>3.29</v>
       </c>
+      <c r="BU11">
+        <f t="shared" si="0"/>
+        <v>462.72687999999999</v>
+      </c>
+      <c r="BV11">
+        <f t="shared" si="1"/>
+        <v>556.4799999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -7537,8 +7637,16 @@
       <c r="BT12" s="2">
         <v>9.02</v>
       </c>
+      <c r="BU12">
+        <f t="shared" si="0"/>
+        <v>212.88420000000008</v>
+      </c>
+      <c r="BV12">
+        <f t="shared" si="1"/>
+        <v>171.07999999999996</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -7755,8 +7863,16 @@
       <c r="BT13" s="2">
         <v>4.24</v>
       </c>
+      <c r="BU13">
+        <f t="shared" si="0"/>
+        <v>464.68943999999993</v>
+      </c>
+      <c r="BV13">
+        <f t="shared" si="1"/>
+        <v>452.4</v>
+      </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -7973,8 +8089,16 @@
       <c r="BT14" s="2">
         <v>7.46</v>
       </c>
+      <c r="BU14">
+        <f t="shared" si="0"/>
+        <v>539.60759999999993</v>
+      </c>
+      <c r="BV14">
+        <f t="shared" si="1"/>
+        <v>778</v>
+      </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -8191,8 +8315,16 @@
       <c r="BT15" s="2">
         <v>2.5499999999999998</v>
       </c>
+      <c r="BU15">
+        <f t="shared" si="0"/>
+        <v>345.73321600000003</v>
+      </c>
+      <c r="BV15">
+        <f t="shared" si="1"/>
+        <v>274.95</v>
+      </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -8409,8 +8541,16 @@
       <c r="BT16" s="2">
         <v>1.9100000000000001</v>
       </c>
+      <c r="BU16">
+        <f t="shared" si="0"/>
+        <v>673.68420000000003</v>
+      </c>
+      <c r="BV16">
+        <f t="shared" si="1"/>
+        <v>740</v>
+      </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -8627,8 +8767,16 @@
       <c r="BT17" s="2">
         <v>5.09</v>
       </c>
+      <c r="BU17">
+        <f t="shared" si="0"/>
+        <v>454.00003199999998</v>
+      </c>
+      <c r="BV17">
+        <f t="shared" si="1"/>
+        <v>502.25</v>
+      </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -8845,8 +8993,16 @@
       <c r="BT18" s="2">
         <v>1.94</v>
       </c>
+      <c r="BU18">
+        <f t="shared" si="0"/>
+        <v>506.96711999999985</v>
+      </c>
+      <c r="BV18">
+        <f t="shared" si="1"/>
+        <v>426.01999999999992</v>
+      </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -9063,8 +9219,16 @@
       <c r="BT19" s="2">
         <v>4.9499999999999993</v>
       </c>
+      <c r="BU19">
+        <f t="shared" si="0"/>
+        <v>282.75073200000003</v>
+      </c>
+      <c r="BV19">
+        <f t="shared" si="1"/>
+        <v>284.84999999999997</v>
+      </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -9281,8 +9445,16 @@
       <c r="BT20" s="2">
         <v>5.15</v>
       </c>
+      <c r="BU20">
+        <f t="shared" si="0"/>
+        <v>184.99950000000001</v>
+      </c>
+      <c r="BV20">
+        <f t="shared" si="1"/>
+        <v>267.3</v>
+      </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -9499,8 +9671,16 @@
       <c r="BT21" s="2">
         <v>4.4499999999999993</v>
       </c>
+      <c r="BU21">
+        <f t="shared" si="0"/>
+        <v>338.03528</v>
+      </c>
+      <c r="BV21">
+        <f t="shared" si="1"/>
+        <v>244.53</v>
+      </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -9717,8 +9897,16 @@
       <c r="BT22" s="2">
         <v>4.7300000000000004</v>
       </c>
+      <c r="BU22">
+        <f t="shared" si="0"/>
+        <v>712.52411999999993</v>
+      </c>
+      <c r="BV22">
+        <f t="shared" si="1"/>
+        <v>627.20000000000005</v>
+      </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -9935,8 +10123,16 @@
       <c r="BT23" s="2">
         <v>4.7</v>
       </c>
+      <c r="BU23">
+        <f t="shared" si="0"/>
+        <v>432.51019200000002</v>
+      </c>
+      <c r="BV23">
+        <f t="shared" si="1"/>
+        <v>364.08000000000004</v>
+      </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -10153,8 +10349,16 @@
       <c r="BT24" s="2">
         <v>4.67</v>
       </c>
+      <c r="BU24">
+        <f t="shared" si="0"/>
+        <v>564.86900000000003</v>
+      </c>
+      <c r="BV24">
+        <f t="shared" si="1"/>
+        <v>580.65000000000009</v>
+      </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -10371,8 +10575,16 @@
       <c r="BT25" s="2">
         <v>2.98</v>
       </c>
+      <c r="BU25">
+        <f t="shared" si="0"/>
+        <v>384.35208</v>
+      </c>
+      <c r="BV25">
+        <f t="shared" si="1"/>
+        <v>524.6</v>
+      </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -10589,8 +10801,16 @@
       <c r="BT26" s="2">
         <v>5.5</v>
       </c>
+      <c r="BU26">
+        <f t="shared" si="0"/>
+        <v>704.06409500000007</v>
+      </c>
+      <c r="BV26">
+        <f t="shared" si="1"/>
+        <v>477.40000000000003</v>
+      </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -10807,8 +11027,16 @@
       <c r="BT27" s="2">
         <v>3.13</v>
       </c>
+      <c r="BU27">
+        <f t="shared" si="0"/>
+        <v>301.59359999999998</v>
+      </c>
+      <c r="BV27">
+        <f t="shared" si="1"/>
+        <v>224.48000000000002</v>
+      </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -11025,8 +11253,16 @@
       <c r="BT28" s="2">
         <v>3.66</v>
       </c>
+      <c r="BU28">
+        <f t="shared" si="0"/>
+        <v>343.13795999999991</v>
+      </c>
+      <c r="BV28">
+        <f t="shared" si="1"/>
+        <v>302.94</v>
+      </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -11243,8 +11479,16 @@
       <c r="BT29" s="2">
         <v>3.96</v>
       </c>
+      <c r="BU29">
+        <f t="shared" si="0"/>
+        <v>491.71511999999996</v>
+      </c>
+      <c r="BV29">
+        <f t="shared" si="1"/>
+        <v>375.2</v>
+      </c>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -11461,8 +11705,16 @@
       <c r="BT30" s="2">
         <v>4.2300000000000004</v>
       </c>
+      <c r="BU30">
+        <f t="shared" si="0"/>
+        <v>498.6816</v>
+      </c>
+      <c r="BV30">
+        <f t="shared" si="1"/>
+        <v>332.31</v>
+      </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -11679,8 +11931,16 @@
       <c r="BT31" s="2">
         <v>2.6100000000000003</v>
       </c>
+      <c r="BU31">
+        <f t="shared" si="0"/>
+        <v>391.78339199999994</v>
+      </c>
+      <c r="BV31">
+        <f t="shared" si="1"/>
+        <v>335.92000000000007</v>
+      </c>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -11897,8 +12157,16 @@
       <c r="BT32" s="2">
         <v>3.8099999999999996</v>
       </c>
+      <c r="BU32">
+        <f t="shared" si="0"/>
+        <v>487.56887999999998</v>
+      </c>
+      <c r="BV32">
+        <f t="shared" si="1"/>
+        <v>361.58</v>
+      </c>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -12115,8 +12383,16 @@
       <c r="BT33" s="2">
         <v>5.05</v>
       </c>
+      <c r="BU33">
+        <f t="shared" si="0"/>
+        <v>419.70552000000004</v>
+      </c>
+      <c r="BV33">
+        <f t="shared" si="1"/>
+        <v>588</v>
+      </c>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -12333,8 +12609,16 @@
       <c r="BT34" s="2">
         <v>4.41</v>
       </c>
+      <c r="BU34">
+        <f t="shared" si="0"/>
+        <v>250.27977999999999</v>
+      </c>
+      <c r="BV34">
+        <f t="shared" si="1"/>
+        <v>306.72000000000003</v>
+      </c>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -12551,8 +12835,16 @@
       <c r="BT35" s="2">
         <v>3.41</v>
       </c>
+      <c r="BU35">
+        <f t="shared" si="0"/>
+        <v>365.40982400000007</v>
+      </c>
+      <c r="BV35">
+        <f t="shared" si="1"/>
+        <v>367.84</v>
+      </c>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -12769,8 +13061,16 @@
       <c r="BT36" s="2">
         <v>4.6500000000000004</v>
       </c>
+      <c r="BU36">
+        <f t="shared" si="0"/>
+        <v>713.95064999999988</v>
+      </c>
+      <c r="BV36">
+        <f t="shared" si="1"/>
+        <v>491.28</v>
+      </c>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -12987,8 +13287,16 @@
       <c r="BT37" s="2">
         <v>2.79</v>
       </c>
+      <c r="BU37">
+        <f t="shared" si="0"/>
+        <v>284.41404</v>
+      </c>
+      <c r="BV37">
+        <f t="shared" si="1"/>
+        <v>209.60000000000002</v>
+      </c>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -13205,8 +13513,16 @@
       <c r="BT38" s="2">
         <v>2.52</v>
       </c>
+      <c r="BU38">
+        <f t="shared" si="0"/>
+        <v>359.03347199999996</v>
+      </c>
+      <c r="BV38">
+        <f t="shared" si="1"/>
+        <v>319.16000000000003</v>
+      </c>
     </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -13423,8 +13739,16 @@
       <c r="BT39" s="2">
         <v>2.0499999999999998</v>
       </c>
+      <c r="BU39">
+        <f t="shared" si="0"/>
+        <v>387.58436000000012</v>
+      </c>
+      <c r="BV39">
+        <f t="shared" si="1"/>
+        <v>416.52000000000004</v>
+      </c>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -13641,8 +13965,16 @@
       <c r="BT40" s="2">
         <v>2.44</v>
       </c>
+      <c r="BU40">
+        <f t="shared" si="0"/>
+        <v>295.66991999999993</v>
+      </c>
+      <c r="BV40">
+        <f t="shared" si="1"/>
+        <v>435.84</v>
+      </c>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>110</v>
       </c>
@@ -13859,8 +14191,16 @@
       <c r="BT41" s="2">
         <v>2.7199999999999998</v>
       </c>
+      <c r="BU41">
+        <f t="shared" si="0"/>
+        <v>296.45460599999996</v>
+      </c>
+      <c r="BV41">
+        <f t="shared" si="1"/>
+        <v>212.04</v>
+      </c>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -14077,8 +14417,16 @@
       <c r="BT42" s="2">
         <v>2.8</v>
       </c>
+      <c r="BU42">
+        <f t="shared" si="0"/>
+        <v>425.10540000000015</v>
+      </c>
+      <c r="BV42">
+        <f t="shared" si="1"/>
+        <v>359.53000000000003</v>
+      </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -14295,8 +14643,16 @@
       <c r="BT43" s="2">
         <v>2.3200000000000003</v>
       </c>
+      <c r="BU43">
+        <f t="shared" si="0"/>
+        <v>392.51674000000008</v>
+      </c>
+      <c r="BV43">
+        <f t="shared" si="1"/>
+        <v>207.68</v>
+      </c>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>113</v>
       </c>
@@ -14513,8 +14869,16 @@
       <c r="BT44" s="2">
         <v>3.0300000000000002</v>
       </c>
+      <c r="BU44">
+        <f t="shared" si="0"/>
+        <v>527.52017999999998</v>
+      </c>
+      <c r="BV44">
+        <f t="shared" si="1"/>
+        <v>317.75</v>
+      </c>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -14731,8 +15095,16 @@
       <c r="BT45" s="2">
         <v>3.58</v>
       </c>
+      <c r="BU45">
+        <f t="shared" si="0"/>
+        <v>364.24079999999998</v>
+      </c>
+      <c r="BV45">
+        <f t="shared" si="1"/>
+        <v>223.44000000000003</v>
+      </c>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -14949,8 +15321,16 @@
       <c r="BT46" s="2">
         <v>2.86</v>
       </c>
+      <c r="BU46">
+        <f t="shared" si="0"/>
+        <v>363.94722000000002</v>
+      </c>
+      <c r="BV46">
+        <f t="shared" si="1"/>
+        <v>302.75999999999993</v>
+      </c>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -15167,8 +15547,16 @@
       <c r="BT47" s="2">
         <v>2.8</v>
       </c>
+      <c r="BU47">
+        <f t="shared" si="0"/>
+        <v>507.06683999999996</v>
+      </c>
+      <c r="BV47">
+        <f t="shared" si="1"/>
+        <v>310.44</v>
+      </c>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>117</v>
       </c>
@@ -15385,8 +15773,16 @@
       <c r="BT48" s="2">
         <v>4.6900000000000004</v>
       </c>
+      <c r="BU48">
+        <f t="shared" si="0"/>
+        <v>222.5616</v>
+      </c>
+      <c r="BV48">
+        <f t="shared" si="1"/>
+        <v>215.34</v>
+      </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>118</v>
       </c>
@@ -15603,8 +15999,16 @@
       <c r="BT49" s="2">
         <v>3.1399999999999997</v>
       </c>
+      <c r="BU49">
+        <f t="shared" si="0"/>
+        <v>497.01932800000014</v>
+      </c>
+      <c r="BV49">
+        <f t="shared" si="1"/>
+        <v>487.40999999999997</v>
+      </c>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>119</v>
       </c>
@@ -15821,8 +16225,16 @@
       <c r="BT50" s="2">
         <v>3.54</v>
       </c>
+      <c r="BU50">
+        <f t="shared" si="0"/>
+        <v>519.03095999999994</v>
+      </c>
+      <c r="BV50">
+        <f t="shared" si="1"/>
+        <v>431.39</v>
+      </c>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -16039,8 +16451,16 @@
       <c r="BT51" s="2">
         <v>5.07</v>
       </c>
+      <c r="BU51">
+        <f t="shared" si="0"/>
+        <v>269.81760000000003</v>
+      </c>
+      <c r="BV51">
+        <f t="shared" si="1"/>
+        <v>367.95</v>
+      </c>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -16257,8 +16677,16 @@
       <c r="BT52" s="2">
         <v>4.1900000000000004</v>
       </c>
+      <c r="BU52">
+        <f t="shared" si="0"/>
+        <v>145.01186700000002</v>
+      </c>
+      <c r="BV52">
+        <f t="shared" si="1"/>
+        <v>166.32</v>
+      </c>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -16475,8 +16903,16 @@
       <c r="BT53" s="2">
         <v>2.4300000000000002</v>
       </c>
+      <c r="BU53">
+        <f t="shared" si="0"/>
+        <v>404.90478000000007</v>
+      </c>
+      <c r="BV53">
+        <f t="shared" si="1"/>
+        <v>344.1</v>
+      </c>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -16693,8 +17129,16 @@
       <c r="BT54" s="2">
         <v>2.2599999999999998</v>
       </c>
+      <c r="BU54">
+        <f t="shared" si="0"/>
+        <v>437.49414800000011</v>
+      </c>
+      <c r="BV54">
+        <f t="shared" si="1"/>
+        <v>513</v>
+      </c>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -16911,8 +17355,16 @@
       <c r="BT55" s="2">
         <v>2.6100000000000003</v>
       </c>
+      <c r="BU55">
+        <f t="shared" si="0"/>
+        <v>333.10583999999994</v>
+      </c>
+      <c r="BV55">
+        <f t="shared" si="1"/>
+        <v>184.29999999999998</v>
+      </c>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -17129,8 +17581,16 @@
       <c r="BT56" s="2">
         <v>2.79</v>
       </c>
+      <c r="BU56">
+        <f t="shared" si="0"/>
+        <v>303.303</v>
+      </c>
+      <c r="BV56">
+        <f t="shared" si="1"/>
+        <v>221.96999999999997</v>
+      </c>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -17347,8 +17807,16 @@
       <c r="BT57" s="2">
         <v>3.42</v>
       </c>
+      <c r="BU57">
+        <f t="shared" si="0"/>
+        <v>372.76075200000008</v>
+      </c>
+      <c r="BV57">
+        <f t="shared" si="1"/>
+        <v>222.01000000000002</v>
+      </c>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -17565,8 +18033,16 @@
       <c r="BT58" s="2">
         <v>2.73</v>
       </c>
+      <c r="BU58">
+        <f t="shared" si="0"/>
+        <v>391.03343999999998</v>
+      </c>
+      <c r="BV58">
+        <f t="shared" si="1"/>
+        <v>413.56</v>
+      </c>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>128</v>
       </c>
@@ -17783,8 +18259,16 @@
       <c r="BT59" s="2">
         <v>4.42</v>
       </c>
+      <c r="BU59">
+        <f t="shared" si="0"/>
+        <v>262.22918400000003</v>
+      </c>
+      <c r="BV59">
+        <f t="shared" si="1"/>
+        <v>388.8</v>
+      </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>129</v>
       </c>
@@ -18001,8 +18485,16 @@
       <c r="BT60" s="2">
         <v>2.0300000000000002</v>
       </c>
+      <c r="BU60">
+        <f t="shared" si="0"/>
+        <v>297.60964799999999</v>
+      </c>
+      <c r="BV60">
+        <f t="shared" si="1"/>
+        <v>253.45000000000002</v>
+      </c>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>130</v>
       </c>
@@ -18219,8 +18711,16 @@
       <c r="BT61" s="2">
         <v>2.63</v>
       </c>
+      <c r="BU61">
+        <f t="shared" si="0"/>
+        <v>586.30017599999996</v>
+      </c>
+      <c r="BV61">
+        <f t="shared" si="1"/>
+        <v>528.08000000000015</v>
+      </c>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -18437,8 +18937,16 @@
       <c r="BT62" s="2">
         <v>2.9</v>
       </c>
+      <c r="BU62">
+        <f t="shared" si="0"/>
+        <v>549.99705599999993</v>
+      </c>
+      <c r="BV62">
+        <f t="shared" si="1"/>
+        <v>277.91999999999996</v>
+      </c>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -18655,8 +19163,16 @@
       <c r="BT63" s="2">
         <v>3.14</v>
       </c>
+      <c r="BU63">
+        <f t="shared" si="0"/>
+        <v>411.15992399999999</v>
+      </c>
+      <c r="BV63">
+        <f t="shared" si="1"/>
+        <v>492.44999999999993</v>
+      </c>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -18873,8 +19389,16 @@
       <c r="BT64" s="2">
         <v>3.45</v>
       </c>
+      <c r="BU64">
+        <f t="shared" si="0"/>
+        <v>604.49809200000004</v>
+      </c>
+      <c r="BV64">
+        <f t="shared" si="1"/>
+        <v>693.1</v>
+      </c>
     </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -19091,8 +19615,16 @@
       <c r="BT65" s="2">
         <v>4.3900000000000006</v>
       </c>
+      <c r="BU65">
+        <f t="shared" si="0"/>
+        <v>599.83334400000001</v>
+      </c>
+      <c r="BV65">
+        <f t="shared" si="1"/>
+        <v>602.99999999999989</v>
+      </c>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -19309,8 +19841,16 @@
       <c r="BT66" s="2">
         <v>3.93</v>
       </c>
+      <c r="BU66">
+        <f t="shared" si="0"/>
+        <v>460.66032000000013</v>
+      </c>
+      <c r="BV66">
+        <f t="shared" si="1"/>
+        <v>764.43000000000006</v>
+      </c>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -19527,8 +20067,16 @@
       <c r="BT67" s="2">
         <v>6.49</v>
       </c>
+      <c r="BU67">
+        <f t="shared" ref="BU67:BU130" si="2">(AZ67*10)*(BA67*10)</f>
+        <v>206.07814800000003</v>
+      </c>
+      <c r="BV67">
+        <f t="shared" ref="BV67:BV130" si="3">(BD67*10)*(BE67*10)</f>
+        <v>175.16</v>
+      </c>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -19745,8 +20293,16 @@
       <c r="BT68" s="2">
         <v>2.99</v>
       </c>
+      <c r="BU68">
+        <f t="shared" si="2"/>
+        <v>471.15424800000005</v>
+      </c>
+      <c r="BV68">
+        <f t="shared" si="3"/>
+        <v>567.91999999999996</v>
+      </c>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>138</v>
       </c>
@@ -19963,8 +20519,16 @@
       <c r="BT69" s="2">
         <v>3.2199999999999998</v>
       </c>
+      <c r="BU69">
+        <f t="shared" si="2"/>
+        <v>797.36799999999994</v>
+      </c>
+      <c r="BV69">
+        <f t="shared" si="3"/>
+        <v>728.45999999999992</v>
+      </c>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -20181,8 +20745,16 @@
       <c r="BT70" s="2">
         <v>3.6399999999999997</v>
       </c>
+      <c r="BU70">
+        <f t="shared" si="2"/>
+        <v>605.36678399999994</v>
+      </c>
+      <c r="BV70">
+        <f t="shared" si="3"/>
+        <v>644.67000000000007</v>
+      </c>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -20399,8 +20971,16 @@
       <c r="BT71" s="2">
         <v>2.5999999999999996</v>
       </c>
+      <c r="BU71">
+        <f t="shared" si="2"/>
+        <v>782.30448000000013</v>
+      </c>
+      <c r="BV71">
+        <f t="shared" si="3"/>
+        <v>761.04</v>
+      </c>
     </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>141</v>
       </c>
@@ -20617,8 +21197,16 @@
       <c r="BT72" s="2">
         <v>2.2199999999999998</v>
       </c>
+      <c r="BU72">
+        <f t="shared" si="2"/>
+        <v>803.853072</v>
+      </c>
+      <c r="BV72">
+        <f t="shared" si="3"/>
+        <v>768.95999999999992</v>
+      </c>
     </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -20835,8 +21423,16 @@
       <c r="BT73" s="2">
         <v>2.71</v>
       </c>
+      <c r="BU73">
+        <f t="shared" si="2"/>
+        <v>915.44964000000027</v>
+      </c>
+      <c r="BV73">
+        <f t="shared" si="3"/>
+        <v>1130.8499999999999</v>
+      </c>
     </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>143</v>
       </c>
@@ -21053,8 +21649,16 @@
       <c r="BT74" s="2">
         <v>3.9699999999999998</v>
       </c>
+      <c r="BU74">
+        <f t="shared" si="2"/>
+        <v>612.17788800000005</v>
+      </c>
+      <c r="BV74">
+        <f t="shared" si="3"/>
+        <v>543.66000000000008</v>
+      </c>
     </row>
-    <row r="75" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>144</v>
       </c>
@@ -21271,8 +21875,16 @@
       <c r="BT75" s="2">
         <v>3.6399999999999997</v>
       </c>
+      <c r="BU75">
+        <f t="shared" si="2"/>
+        <v>608.71315200000015</v>
+      </c>
+      <c r="BV75">
+        <f t="shared" si="3"/>
+        <v>609.7600000000001</v>
+      </c>
     </row>
-    <row r="76" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -21489,8 +22101,16 @@
       <c r="BT76" s="2">
         <v>4.0199999999999996</v>
       </c>
+      <c r="BU76">
+        <f t="shared" si="2"/>
+        <v>559.98247800000001</v>
+      </c>
+      <c r="BV76">
+        <f t="shared" si="3"/>
+        <v>410.82</v>
+      </c>
     </row>
-    <row r="77" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>146</v>
       </c>
@@ -21707,8 +22327,16 @@
       <c r="BT77" s="2">
         <v>3.45</v>
       </c>
+      <c r="BU77">
+        <f t="shared" si="2"/>
+        <v>832.56335999999999</v>
+      </c>
+      <c r="BV77">
+        <f t="shared" si="3"/>
+        <v>1172.4899999999998</v>
+      </c>
     </row>
-    <row r="78" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -21925,8 +22553,16 @@
       <c r="BT78" s="2">
         <v>3.67</v>
       </c>
+      <c r="BU78">
+        <f t="shared" si="2"/>
+        <v>844.44929999999988</v>
+      </c>
+      <c r="BV78">
+        <f t="shared" si="3"/>
+        <v>778.25</v>
+      </c>
     </row>
-    <row r="79" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>148</v>
       </c>
@@ -22143,8 +22779,16 @@
       <c r="BT79" s="2">
         <v>4.03</v>
       </c>
+      <c r="BU79">
+        <f t="shared" si="2"/>
+        <v>358.44119999999992</v>
+      </c>
+      <c r="BV79">
+        <f t="shared" si="3"/>
+        <v>633.31999999999994</v>
+      </c>
     </row>
-    <row r="80" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>149</v>
       </c>
@@ -22361,8 +23005,16 @@
       <c r="BT80" s="2">
         <v>4.04</v>
       </c>
+      <c r="BU80">
+        <f t="shared" si="2"/>
+        <v>288.87777000000006</v>
+      </c>
+      <c r="BV80">
+        <f t="shared" si="3"/>
+        <v>247.20000000000002</v>
+      </c>
     </row>
-    <row r="81" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>150</v>
       </c>
@@ -22579,8 +23231,16 @@
       <c r="BT81" s="2">
         <v>3.76</v>
       </c>
+      <c r="BU81">
+        <f t="shared" si="2"/>
+        <v>324.72694799999994</v>
+      </c>
+      <c r="BV81">
+        <f t="shared" si="3"/>
+        <v>147.42000000000002</v>
+      </c>
     </row>
-    <row r="82" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>151</v>
       </c>
@@ -22797,8 +23457,16 @@
       <c r="BT82" s="2">
         <v>5.58</v>
       </c>
+      <c r="BU82">
+        <f t="shared" si="2"/>
+        <v>107.71176000000003</v>
+      </c>
+      <c r="BV82">
+        <f t="shared" si="3"/>
+        <v>152.88</v>
+      </c>
     </row>
-    <row r="83" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>152</v>
       </c>
@@ -23015,8 +23683,16 @@
       <c r="BT83" s="2">
         <v>3.75</v>
       </c>
+      <c r="BU83">
+        <f t="shared" si="2"/>
+        <v>350.22954600000003</v>
+      </c>
+      <c r="BV83">
+        <f t="shared" si="3"/>
+        <v>219.78000000000003</v>
+      </c>
     </row>
-    <row r="84" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>153</v>
       </c>
@@ -23233,8 +23909,16 @@
       <c r="BT84" s="2">
         <v>4</v>
       </c>
+      <c r="BU84">
+        <f t="shared" si="2"/>
+        <v>145.11118599999998</v>
+      </c>
+      <c r="BV84">
+        <f t="shared" si="3"/>
+        <v>174.47</v>
+      </c>
     </row>
-    <row r="85" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -23451,8 +24135,16 @@
       <c r="BT85" s="2" t="e">
         <v>#N/A</v>
       </c>
+      <c r="BU85" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BV85" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="86" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>155</v>
       </c>
@@ -23669,8 +24361,16 @@
       <c r="BT86" s="2">
         <v>6.4799999999999995</v>
       </c>
+      <c r="BU86">
+        <f t="shared" si="2"/>
+        <v>283.35328000000004</v>
+      </c>
+      <c r="BV86">
+        <f t="shared" si="3"/>
+        <v>209.61999999999998</v>
+      </c>
     </row>
-    <row r="87" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -23887,8 +24587,16 @@
       <c r="BT87" s="2" t="e">
         <v>#N/A</v>
       </c>
+      <c r="BU87" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BV87" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="88" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -24105,8 +24813,16 @@
       <c r="BT88" s="2">
         <v>2.42</v>
       </c>
+      <c r="BU88">
+        <f t="shared" si="2"/>
+        <v>268.02652800000004</v>
+      </c>
+      <c r="BV88">
+        <f t="shared" si="3"/>
+        <v>158.85999999999996</v>
+      </c>
     </row>
-    <row r="89" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>158</v>
       </c>
@@ -24323,8 +25039,16 @@
       <c r="BT89" s="2">
         <v>5.1400000000000006</v>
       </c>
+      <c r="BU89">
+        <f t="shared" si="2"/>
+        <v>219.57528600000003</v>
+      </c>
+      <c r="BV89">
+        <f t="shared" si="3"/>
+        <v>215.43</v>
+      </c>
     </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>159</v>
       </c>
@@ -24541,8 +25265,16 @@
       <c r="BT90" s="2">
         <v>3.3200000000000003</v>
       </c>
+      <c r="BU90">
+        <f t="shared" si="2"/>
+        <v>450.56303600000007</v>
+      </c>
+      <c r="BV90">
+        <f t="shared" si="3"/>
+        <v>504.3</v>
+      </c>
     </row>
-    <row r="91" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>160</v>
       </c>
@@ -24759,8 +25491,16 @@
       <c r="BT91" s="2">
         <v>3.65</v>
       </c>
+      <c r="BU91">
+        <f t="shared" si="2"/>
+        <v>661.20969600000001</v>
+      </c>
+      <c r="BV91">
+        <f t="shared" si="3"/>
+        <v>507.45</v>
+      </c>
     </row>
-    <row r="92" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -24977,8 +25717,16 @@
       <c r="BT92" s="2">
         <v>4.0600000000000005</v>
       </c>
+      <c r="BU92">
+        <f t="shared" si="2"/>
+        <v>1410.9469919999999</v>
+      </c>
+      <c r="BV92">
+        <f t="shared" si="3"/>
+        <v>1333.2</v>
+      </c>
     </row>
-    <row r="93" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>162</v>
       </c>
@@ -25195,8 +25943,16 @@
       <c r="BT93" s="2">
         <v>4.6900000000000004</v>
       </c>
+      <c r="BU93">
+        <f t="shared" si="2"/>
+        <v>677.17910399999994</v>
+      </c>
+      <c r="BV93">
+        <f t="shared" si="3"/>
+        <v>1002.74</v>
+      </c>
     </row>
-    <row r="94" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>163</v>
       </c>
@@ -25413,8 +26169,16 @@
       <c r="BT94" s="2">
         <v>4.9399999999999995</v>
       </c>
+      <c r="BU94">
+        <f t="shared" si="2"/>
+        <v>380.95775999999995</v>
+      </c>
+      <c r="BV94">
+        <f t="shared" si="3"/>
+        <v>519.68000000000006</v>
+      </c>
     </row>
-    <row r="95" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>164</v>
       </c>
@@ -25631,8 +26395,16 @@
       <c r="BT95" s="2">
         <v>2.2599999999999998</v>
       </c>
+      <c r="BU95">
+        <f t="shared" si="2"/>
+        <v>533.18358000000001</v>
+      </c>
+      <c r="BV95">
+        <f t="shared" si="3"/>
+        <v>298.28999999999996</v>
+      </c>
     </row>
-    <row r="96" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>165</v>
       </c>
@@ -25849,8 +26621,16 @@
       <c r="BT96" s="2">
         <v>2.71</v>
       </c>
+      <c r="BU96">
+        <f t="shared" si="2"/>
+        <v>686.80189200000007</v>
+      </c>
+      <c r="BV96">
+        <f t="shared" si="3"/>
+        <v>1050.5999999999999</v>
+      </c>
     </row>
-    <row r="97" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>166</v>
       </c>
@@ -26067,8 +26847,16 @@
       <c r="BT97" s="2">
         <v>4.18</v>
       </c>
+      <c r="BU97">
+        <f t="shared" si="2"/>
+        <v>359.58700799999997</v>
+      </c>
+      <c r="BV97">
+        <f t="shared" si="3"/>
+        <v>355.08</v>
+      </c>
     </row>
-    <row r="98" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>167</v>
       </c>
@@ -26285,8 +27073,16 @@
       <c r="BT98" s="2">
         <v>4.78</v>
       </c>
+      <c r="BU98">
+        <f t="shared" si="2"/>
+        <v>417.84573599999993</v>
+      </c>
+      <c r="BV98">
+        <f t="shared" si="3"/>
+        <v>471.6</v>
+      </c>
     </row>
-    <row r="99" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>168</v>
       </c>
@@ -26503,8 +27299,16 @@
       <c r="BT99" s="2">
         <v>4.5199999999999996</v>
       </c>
+      <c r="BU99">
+        <f t="shared" si="2"/>
+        <v>261.09934500000003</v>
+      </c>
+      <c r="BV99">
+        <f t="shared" si="3"/>
+        <v>215.73000000000002</v>
+      </c>
     </row>
-    <row r="100" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>169</v>
       </c>
@@ -26721,8 +27525,16 @@
       <c r="BT100" s="2">
         <v>4.7300000000000004</v>
       </c>
+      <c r="BU100">
+        <f t="shared" si="2"/>
+        <v>258.28450200000003</v>
+      </c>
+      <c r="BV100">
+        <f t="shared" si="3"/>
+        <v>367.36</v>
+      </c>
     </row>
-    <row r="101" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>170</v>
       </c>
@@ -26939,8 +27751,16 @@
       <c r="BT101" s="2">
         <v>2.29</v>
       </c>
+      <c r="BU101">
+        <f t="shared" si="2"/>
+        <v>510.11337600000002</v>
+      </c>
+      <c r="BV101">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
     </row>
-    <row r="102" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>171</v>
       </c>
@@ -27157,8 +27977,16 @@
       <c r="BT102" s="2">
         <v>4.1399999999999997</v>
       </c>
+      <c r="BU102">
+        <f t="shared" si="2"/>
+        <v>197.69820000000001</v>
+      </c>
+      <c r="BV102">
+        <f t="shared" si="3"/>
+        <v>181.2</v>
+      </c>
     </row>
-    <row r="103" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>172</v>
       </c>
@@ -27375,8 +28203,16 @@
       <c r="BT103" s="2">
         <v>3.48</v>
       </c>
+      <c r="BU103">
+        <f t="shared" si="2"/>
+        <v>324.04319999999996</v>
+      </c>
+      <c r="BV103">
+        <f t="shared" si="3"/>
+        <v>364</v>
+      </c>
     </row>
-    <row r="104" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>173</v>
       </c>
@@ -27593,8 +28429,16 @@
       <c r="BT104" s="2">
         <v>3.6599999999999997</v>
       </c>
+      <c r="BU104">
+        <f t="shared" si="2"/>
+        <v>218.96160000000003</v>
+      </c>
+      <c r="BV104">
+        <f t="shared" si="3"/>
+        <v>227.99999999999997</v>
+      </c>
     </row>
-    <row r="105" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>174</v>
       </c>
@@ -27811,8 +28655,16 @@
       <c r="BT105" s="2">
         <v>5.38</v>
       </c>
+      <c r="BU105">
+        <f t="shared" si="2"/>
+        <v>278.84937600000006</v>
+      </c>
+      <c r="BV105">
+        <f t="shared" si="3"/>
+        <v>340.26000000000005</v>
+      </c>
     </row>
-    <row r="106" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>175</v>
       </c>
@@ -28029,8 +28881,16 @@
       <c r="BT106" s="2">
         <v>4.3900000000000006</v>
       </c>
+      <c r="BU106">
+        <f t="shared" si="2"/>
+        <v>275.38000000000005</v>
+      </c>
+      <c r="BV106">
+        <f t="shared" si="3"/>
+        <v>214.13000000000002</v>
+      </c>
     </row>
-    <row r="107" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>176</v>
       </c>
@@ -28247,8 +29107,16 @@
       <c r="BT107" s="2">
         <v>4.3</v>
       </c>
+      <c r="BU107">
+        <f t="shared" si="2"/>
+        <v>381.00510000000003</v>
+      </c>
+      <c r="BV107">
+        <f t="shared" si="3"/>
+        <v>349.83</v>
+      </c>
     </row>
-    <row r="108" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>177</v>
       </c>
@@ -28465,8 +29333,16 @@
       <c r="BT108" s="2">
         <v>3.1100000000000003</v>
       </c>
+      <c r="BU108">
+        <f t="shared" si="2"/>
+        <v>473.29106400000001</v>
+      </c>
+      <c r="BV108">
+        <f t="shared" si="3"/>
+        <v>443.25</v>
+      </c>
     </row>
-    <row r="109" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>178</v>
       </c>
@@ -28683,8 +29559,16 @@
       <c r="BT109" s="2">
         <v>3.36</v>
       </c>
+      <c r="BU109">
+        <f t="shared" si="2"/>
+        <v>419.09896000000003</v>
+      </c>
+      <c r="BV109">
+        <f t="shared" si="3"/>
+        <v>334.88000000000005</v>
+      </c>
     </row>
-    <row r="110" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>179</v>
       </c>
@@ -28901,8 +29785,16 @@
       <c r="BT110" s="2">
         <v>4.59</v>
       </c>
+      <c r="BU110">
+        <f t="shared" si="2"/>
+        <v>290.38056000000006</v>
+      </c>
+      <c r="BV110">
+        <f t="shared" si="3"/>
+        <v>205.79999999999998</v>
+      </c>
     </row>
-    <row r="111" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>180</v>
       </c>
@@ -29119,8 +30011,16 @@
       <c r="BT111" s="2">
         <v>3.94</v>
       </c>
+      <c r="BU111">
+        <f t="shared" si="2"/>
+        <v>330.06149999999997</v>
+      </c>
+      <c r="BV111">
+        <f t="shared" si="3"/>
+        <v>206.39999999999998</v>
+      </c>
     </row>
-    <row r="112" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>181</v>
       </c>
@@ -29337,8 +30237,16 @@
       <c r="BT112" s="2">
         <v>5.38</v>
       </c>
+      <c r="BU112">
+        <f t="shared" si="2"/>
+        <v>461.51611800000006</v>
+      </c>
+      <c r="BV112">
+        <f t="shared" si="3"/>
+        <v>542.72000000000014</v>
+      </c>
     </row>
-    <row r="113" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>182</v>
       </c>
@@ -29555,8 +30463,16 @@
       <c r="BT113" s="2">
         <v>4.12</v>
       </c>
+      <c r="BU113">
+        <f t="shared" si="2"/>
+        <v>231.99750000000003</v>
+      </c>
+      <c r="BV113">
+        <f t="shared" si="3"/>
+        <v>267.26</v>
+      </c>
     </row>
-    <row r="114" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>183</v>
       </c>
@@ -29773,8 +30689,16 @@
       <c r="BT114" s="2">
         <v>3.49</v>
       </c>
+      <c r="BU114">
+        <f t="shared" si="2"/>
+        <v>525.62314000000003</v>
+      </c>
+      <c r="BV114">
+        <f t="shared" si="3"/>
+        <v>769.73</v>
+      </c>
     </row>
-    <row r="115" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>184</v>
       </c>
@@ -29991,8 +30915,16 @@
       <c r="BT115" s="2">
         <v>1.69</v>
       </c>
+      <c r="BU115">
+        <f t="shared" si="2"/>
+        <v>787.74364799999989</v>
+      </c>
+      <c r="BV115">
+        <f t="shared" si="3"/>
+        <v>667.42000000000007</v>
+      </c>
     </row>
-    <row r="116" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>185</v>
       </c>
@@ -30209,8 +31141,16 @@
       <c r="BT116" s="2">
         <v>2.77</v>
       </c>
+      <c r="BU116">
+        <f t="shared" si="2"/>
+        <v>760.15929600000015</v>
+      </c>
+      <c r="BV116">
+        <f t="shared" si="3"/>
+        <v>749.49</v>
+      </c>
     </row>
-    <row r="117" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>186</v>
       </c>
@@ -30427,8 +31367,16 @@
       <c r="BT117" s="2">
         <v>4.1500000000000004</v>
       </c>
+      <c r="BU117">
+        <f t="shared" si="2"/>
+        <v>737.59770000000003</v>
+      </c>
+      <c r="BV117">
+        <f t="shared" si="3"/>
+        <v>421.82000000000011</v>
+      </c>
     </row>
-    <row r="118" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>187</v>
       </c>
@@ -30645,8 +31593,16 @@
       <c r="BT118" s="2">
         <v>7.36</v>
       </c>
+      <c r="BU118">
+        <f t="shared" si="2"/>
+        <v>503.04441600000007</v>
+      </c>
+      <c r="BV118">
+        <f t="shared" si="3"/>
+        <v>574.19999999999993</v>
+      </c>
     </row>
-    <row r="119" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>188</v>
       </c>
@@ -30863,8 +31819,16 @@
       <c r="BT119" s="2">
         <v>2.9000000000000004</v>
       </c>
+      <c r="BU119">
+        <f t="shared" si="2"/>
+        <v>524.0303550000001</v>
+      </c>
+      <c r="BV119">
+        <f t="shared" si="3"/>
+        <v>493.28999999999996</v>
+      </c>
     </row>
-    <row r="120" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>189</v>
       </c>
@@ -31081,8 +32045,16 @@
       <c r="BT120" s="2">
         <v>2.48</v>
       </c>
+      <c r="BU120">
+        <f t="shared" si="2"/>
+        <v>391.13400000000001</v>
+      </c>
+      <c r="BV120">
+        <f t="shared" si="3"/>
+        <v>528.08000000000004</v>
+      </c>
     </row>
-    <row r="121" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>190</v>
       </c>
@@ -31299,8 +32271,16 @@
       <c r="BT121" s="2">
         <v>2.5099999999999998</v>
       </c>
+      <c r="BU121">
+        <f t="shared" si="2"/>
+        <v>936.84888000000012</v>
+      </c>
+      <c r="BV121">
+        <f t="shared" si="3"/>
+        <v>580.90000000000009</v>
+      </c>
     </row>
-    <row r="122" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>191</v>
       </c>
@@ -31517,8 +32497,16 @@
       <c r="BT122" s="2">
         <v>2.59</v>
       </c>
+      <c r="BU122">
+        <f t="shared" si="2"/>
+        <v>731.95353</v>
+      </c>
+      <c r="BV122">
+        <f t="shared" si="3"/>
+        <v>537.6</v>
+      </c>
     </row>
-    <row r="123" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>192</v>
       </c>
@@ -31735,8 +32723,16 @@
       <c r="BT123" s="2">
         <v>2.46</v>
       </c>
+      <c r="BU123">
+        <f t="shared" si="2"/>
+        <v>386.55817200000001</v>
+      </c>
+      <c r="BV123">
+        <f t="shared" si="3"/>
+        <v>585.09</v>
+      </c>
     </row>
-    <row r="124" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>193</v>
       </c>
@@ -31953,8 +32949,16 @@
       <c r="BT124" s="2">
         <v>2.19</v>
       </c>
+      <c r="BU124">
+        <f t="shared" si="2"/>
+        <v>311.10651000000007</v>
+      </c>
+      <c r="BV124">
+        <f t="shared" si="3"/>
+        <v>314.90000000000003</v>
+      </c>
     </row>
-    <row r="125" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>194</v>
       </c>
@@ -32171,8 +33175,16 @@
       <c r="BT125" s="2">
         <v>2.37</v>
       </c>
+      <c r="BU125">
+        <f t="shared" si="2"/>
+        <v>782.97172799999998</v>
+      </c>
+      <c r="BV125">
+        <f t="shared" si="3"/>
+        <v>618.24000000000012</v>
+      </c>
     </row>
-    <row r="126" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>195</v>
       </c>
@@ -32389,8 +33401,16 @@
       <c r="BT126" s="2">
         <v>3.55</v>
       </c>
+      <c r="BU126">
+        <f t="shared" si="2"/>
+        <v>308.72134799999998</v>
+      </c>
+      <c r="BV126">
+        <f t="shared" si="3"/>
+        <v>273.60000000000002</v>
+      </c>
     </row>
-    <row r="127" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>196</v>
       </c>
@@ -32607,8 +33627,16 @@
       <c r="BT127" s="2">
         <v>2.71</v>
       </c>
+      <c r="BU127">
+        <f t="shared" si="2"/>
+        <v>612.93239999999992</v>
+      </c>
+      <c r="BV127">
+        <f t="shared" si="3"/>
+        <v>481.11</v>
+      </c>
     </row>
-    <row r="128" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>197</v>
       </c>
@@ -32825,8 +33853,16 @@
       <c r="BT128" s="2">
         <v>3.8999999999999995</v>
       </c>
+      <c r="BU128">
+        <f t="shared" si="2"/>
+        <v>757.01390400000014</v>
+      </c>
+      <c r="BV128">
+        <f t="shared" si="3"/>
+        <v>772.8</v>
+      </c>
     </row>
-    <row r="129" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>198</v>
       </c>
@@ -33043,8 +34079,16 @@
       <c r="BT129" s="2">
         <v>2.39</v>
       </c>
+      <c r="BU129">
+        <f t="shared" si="2"/>
+        <v>715.71744000000012</v>
+      </c>
+      <c r="BV129">
+        <f t="shared" si="3"/>
+        <v>849.59999999999991</v>
+      </c>
     </row>
-    <row r="130" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>199</v>
       </c>
@@ -33261,8 +34305,16 @@
       <c r="BT130" s="2">
         <v>3.28</v>
       </c>
+      <c r="BU130">
+        <f t="shared" si="2"/>
+        <v>610.449252</v>
+      </c>
+      <c r="BV130">
+        <f t="shared" si="3"/>
+        <v>498.20000000000005</v>
+      </c>
     </row>
-    <row r="131" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>200</v>
       </c>
@@ -33479,8 +34531,16 @@
       <c r="BT131" s="2">
         <v>3.99</v>
       </c>
+      <c r="BU131">
+        <f t="shared" ref="BU131:BU144" si="4">(AZ131*10)*(BA131*10)</f>
+        <v>698.08614399999999</v>
+      </c>
+      <c r="BV131">
+        <f t="shared" ref="BV131:BV144" si="5">(BD131*10)*(BE131*10)</f>
+        <v>908.04000000000008</v>
+      </c>
     </row>
-    <row r="132" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>201</v>
       </c>
@@ -33697,8 +34757,16 @@
       <c r="BT132" s="2">
         <v>2.36</v>
       </c>
+      <c r="BU132">
+        <f t="shared" si="4"/>
+        <v>597.42431999999997</v>
+      </c>
+      <c r="BV132">
+        <f t="shared" si="5"/>
+        <v>445.05</v>
+      </c>
     </row>
-    <row r="133" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>202</v>
       </c>
@@ -33915,8 +34983,16 @@
       <c r="BT133" s="2">
         <v>2.8499999999999996</v>
       </c>
+      <c r="BU133">
+        <f t="shared" si="4"/>
+        <v>401.82732799999991</v>
+      </c>
+      <c r="BV133">
+        <f t="shared" si="5"/>
+        <v>420.75000000000006</v>
+      </c>
     </row>
-    <row r="134" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>203</v>
       </c>
@@ -34133,8 +35209,16 @@
       <c r="BT134" s="2">
         <v>2.56</v>
       </c>
+      <c r="BU134">
+        <f t="shared" si="4"/>
+        <v>581.04504000000009</v>
+      </c>
+      <c r="BV134">
+        <f t="shared" si="5"/>
+        <v>399</v>
+      </c>
     </row>
-    <row r="135" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>204</v>
       </c>
@@ -34351,8 +35435,16 @@
       <c r="BT135" s="2">
         <v>4.12</v>
       </c>
+      <c r="BU135">
+        <f t="shared" si="4"/>
+        <v>367.65683999999993</v>
+      </c>
+      <c r="BV135">
+        <f t="shared" si="5"/>
+        <v>457.24</v>
+      </c>
     </row>
-    <row r="136" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>205</v>
       </c>
@@ -34569,8 +35661,16 @@
       <c r="BT136" s="2">
         <v>3.33</v>
       </c>
+      <c r="BU136">
+        <f t="shared" si="4"/>
+        <v>405.95045399999998</v>
+      </c>
+      <c r="BV136">
+        <f t="shared" si="5"/>
+        <v>406</v>
+      </c>
     </row>
-    <row r="137" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>206</v>
       </c>
@@ -34787,8 +35887,16 @@
       <c r="BT137" s="2">
         <v>5.6999999999999993</v>
       </c>
+      <c r="BU137">
+        <f t="shared" si="4"/>
+        <v>349.43090000000001</v>
+      </c>
+      <c r="BV137">
+        <f t="shared" si="5"/>
+        <v>229.32</v>
+      </c>
     </row>
-    <row r="138" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>207</v>
       </c>
@@ -35005,8 +36113,16 @@
       <c r="BT138" s="2">
         <v>1.96</v>
       </c>
+      <c r="BU138">
+        <f t="shared" si="4"/>
+        <v>248.48208</v>
+      </c>
+      <c r="BV138">
+        <f t="shared" si="5"/>
+        <v>452.91999999999996</v>
+      </c>
     </row>
-    <row r="139" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>208</v>
       </c>
@@ -35223,8 +36339,16 @@
       <c r="BT139" s="2">
         <v>3.6500000000000004</v>
       </c>
+      <c r="BU139">
+        <f t="shared" si="4"/>
+        <v>423.90216000000004</v>
+      </c>
+      <c r="BV139">
+        <f t="shared" si="5"/>
+        <v>637.87</v>
+      </c>
     </row>
-    <row r="140" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>209</v>
       </c>
@@ -35441,8 +36565,16 @@
       <c r="BT140" s="2" t="e">
         <v>#N/A</v>
       </c>
+      <c r="BU140" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BV140" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="141" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>210</v>
       </c>
@@ -35659,8 +36791,16 @@
       <c r="BT141" s="2">
         <v>3.6100000000000003</v>
       </c>
+      <c r="BU141">
+        <f t="shared" si="4"/>
+        <v>418.11840000000001</v>
+      </c>
+      <c r="BV141">
+        <f t="shared" si="5"/>
+        <v>451.99999999999994</v>
+      </c>
     </row>
-    <row r="142" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>211</v>
       </c>
@@ -35877,8 +37017,16 @@
       <c r="BT142" s="2">
         <v>4.04</v>
       </c>
+      <c r="BU142">
+        <f t="shared" si="4"/>
+        <v>612.6880000000001</v>
+      </c>
+      <c r="BV142">
+        <f t="shared" si="5"/>
+        <v>538.35</v>
+      </c>
     </row>
-    <row r="143" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>212</v>
       </c>
@@ -36095,8 +37243,16 @@
       <c r="BT143" s="2">
         <v>2.99</v>
       </c>
+      <c r="BU143">
+        <f t="shared" si="4"/>
+        <v>361.77679999999998</v>
+      </c>
+      <c r="BV143">
+        <f t="shared" si="5"/>
+        <v>248.74999999999997</v>
+      </c>
     </row>
-    <row r="144" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>213</v>
       </c>
@@ -36312,6 +37468,14 @@
       </c>
       <c r="BT144" s="2">
         <v>3.2399999999999998</v>
+      </c>
+      <c r="BU144">
+        <f t="shared" si="4"/>
+        <v>535.32576000000006</v>
+      </c>
+      <c r="BV144">
+        <f t="shared" si="5"/>
+        <v>502.98</v>
       </c>
     </row>
   </sheetData>
